--- a/biology/Zoologie/Vital_Brazil/Vital_Brazil.xlsx
+++ b/biology/Zoologie/Vital_Brazil/Vital_Brazil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vital Brazil  Mineiro da Campanha est un médecin brésilien, né le 28 avril 1865 à Campanhã, Minas Gerais et mort le 8 mai 1950.
 Il est surtout célèbre pour sa découvert d’un sérum anti-venimeux polyvalent utilisé comme les morsures de serpents des genres Crotalus, Bothrops et Elaps.
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de José Manoel Pereira dos Santos et Maria Carolina Pereira de Magalhães, il a été marié avec sa cousine, Maria da Conceição Philipina de Magalhães. Veuf de cette dernière, il se remarie avec Dinah Carneiro Vianna. Par sa mère, Vital descend du martyr de l'indépendance du Brésil, Joaquim José da Silva Xavier, le « Tiradentes ».
 Il étudie la médecine à la Faculté de médecine de Rio de Janeiro et réussit avec brio en 1891. De retour à São Paulo il est clinicien dans les différentes villes de l'État. Pendant ce temps, il est témoin de la mort de plusieurs personnes mordues par des serpents, principalement des agriculteurs.
@@ -549,7 +563,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vital Brazil en 1911 avec un lasso pour serpent.
